--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KUJO JOTARO\Desktop\github\nest-bs\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DF9B05-17DC-4E63-8EB4-35F58FA06CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35367DB4-59C8-4977-A6A8-D94131A9141F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9E1DD6AB-21D5-4F64-B824-AD98C978794E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9E1DD6AB-21D5-4F64-B824-AD98C978794E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="99">
   <si>
     <t>mail</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,14 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>product_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device_temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>protocol_temp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,15 +145,286 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SIM卡的国际移动用户识别码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device_basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户绑定设备时使用</t>
+    <t>user_device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datatype_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datatype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device_datatype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIM卡的国际移动用户识别码(没用到)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>properties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operate_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运算大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备状态, 0离线，1在线，2未激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sender_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运算方式 * 或 / 或 + -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户绑定设备时使用,匹配云平台上的设备列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配平台上的产品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arthur_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dislike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to_user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_like_article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up_down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于或小于，小于0，大于1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin发送系统消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_sms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_message_in_website</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要0，需要1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于使用device_id查product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未验证为0，已验证为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ocdevice_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ocproduct_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据名，如温度，心率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datatype_real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原本的数据类型，如温度应该是double型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从api获取数据都是整形，用这个换算回真值，这个表对应新建产品时的properties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个设备对应有哪些类型的设备，存data时可以查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存原值 *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第几个顺序的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verify_doctor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由admin认证，0不是，1是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message_admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current_Timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户为0,doctor为1,admin用户为2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是dislike, 1是like</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,6 +480,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,24 +801,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E846C2B-FA2E-491D-B688-FF85BC6C8EAA}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="30.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="37.44140625" customWidth="1"/>
-    <col min="7" max="7" width="33.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -557,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -568,14 +837,18 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="1"/>
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -586,11 +859,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="1"/>
       <c r="D3" t="s">
         <v>11</v>
       </c>
@@ -598,246 +872,1173 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>0</v>
       </c>
+      <c r="C5" s="1"/>
       <c r="D5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="1"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B10" t="s">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B15" t="s">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C21" s="1"/>
       <c r="D21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>24</v>
-      </c>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
       <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="E75" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" t="s">
+        <v>70</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="2"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="2"/>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="1"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="19">
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="A85:A93"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="G91:G93"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="A49:A51"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KUJO JOTARO\Desktop\github\nest-bs\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35367DB4-59C8-4977-A6A8-D94131A9141F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F342A220-EABD-4AA1-8B3D-67FA6603BCAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9E1DD6AB-21D5-4F64-B824-AD98C978794E}"/>
   </bookViews>
@@ -471,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -483,6 +483,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -803,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E846C2B-FA2E-491D-B688-FF85BC6C8EAA}">
   <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -842,7 +845,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -860,7 +863,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -873,7 +876,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -883,7 +886,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -893,7 +896,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -904,7 +907,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B7" t="s">
@@ -914,7 +917,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -922,7 +925,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>91</v>
       </c>
@@ -932,7 +935,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
@@ -947,7 +950,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -957,7 +960,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -967,7 +970,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -977,7 +980,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -1042,7 +1045,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B20" t="s">
@@ -1056,7 +1059,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -1066,7 +1069,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="4"/>
       <c r="B22" t="s">
         <v>78</v>
       </c>
@@ -1078,7 +1081,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -1090,7 +1093,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>18</v>
       </c>
@@ -1102,7 +1105,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
@@ -1119,14 +1122,14 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="4"/>
       <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="4"/>
       <c r="B27" t="s">
         <v>77</v>
       </c>
@@ -1138,7 +1141,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="4"/>
       <c r="B28" t="s">
         <v>78</v>
       </c>
@@ -1147,7 +1150,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -1156,7 +1159,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="4"/>
       <c r="B30" t="s">
         <v>26</v>
       </c>
@@ -1165,7 +1168,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>31</v>
       </c>
@@ -1174,7 +1177,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="4"/>
       <c r="B32" t="s">
         <v>44</v>
       </c>
@@ -1189,7 +1192,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B33" t="s">
@@ -1203,28 +1206,28 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="A34" s="4"/>
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="4"/>
       <c r="B35" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="4"/>
       <c r="B36" t="s">
         <v>78</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B37" t="s">
@@ -1239,21 +1242,21 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="4"/>
       <c r="B38" t="s">
         <v>29</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="A39" s="4"/>
       <c r="B39" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
+      <c r="A40" s="4"/>
       <c r="B40" t="s">
         <v>75</v>
       </c>
@@ -1265,7 +1268,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B41" t="s">
@@ -1282,7 +1285,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="4"/>
       <c r="B42" t="s">
         <v>1</v>
       </c>
@@ -1291,7 +1294,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="A43" s="4"/>
       <c r="B43" t="s">
         <v>84</v>
       </c>
@@ -1300,7 +1303,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="A44" s="4"/>
       <c r="B44" t="s">
         <v>41</v>
       </c>
@@ -1309,7 +1312,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="A45" s="4"/>
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -1318,7 +1321,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="A46" s="4"/>
       <c r="B46" t="s">
         <v>79</v>
       </c>
@@ -1327,7 +1330,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="4"/>
       <c r="B47" t="s">
         <v>80</v>
       </c>
@@ -1336,7 +1339,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="A48" s="4"/>
       <c r="B48" t="s">
         <v>89</v>
       </c>
@@ -1344,94 +1347,94 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" t="s">
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" t="s">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="E52" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" t="s">
+      <c r="C53" s="1"/>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" t="s">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" t="s">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" t="s">
-        <v>40</v>
-      </c>
       <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B58" t="s">
@@ -1446,28 +1449,28 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+      <c r="A59" s="4"/>
       <c r="B59" t="s">
         <v>29</v>
       </c>
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
+      <c r="A60" s="4"/>
       <c r="B60" t="s">
         <v>48</v>
       </c>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
+      <c r="A61" s="4"/>
       <c r="B61" t="s">
         <v>47</v>
       </c>
       <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="A62" s="4"/>
       <c r="B62" t="s">
         <v>39</v>
       </c>
@@ -1476,7 +1479,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B63" t="s">
@@ -1493,28 +1496,28 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
+      <c r="A64" s="4"/>
       <c r="B64" t="s">
         <v>67</v>
       </c>
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
+      <c r="A65" s="4"/>
       <c r="B65" t="s">
         <v>47</v>
       </c>
       <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
+      <c r="A66" s="4"/>
       <c r="B66" t="s">
         <v>39</v>
       </c>
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B67" t="s">
@@ -1529,21 +1532,21 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
+      <c r="A68" s="4"/>
       <c r="B68" t="s">
         <v>55</v>
       </c>
       <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
+      <c r="A69" s="4"/>
       <c r="B69" t="s">
         <v>47</v>
       </c>
       <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
+      <c r="A70" s="4"/>
       <c r="B70" t="s">
         <v>56</v>
       </c>
@@ -1553,7 +1556,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
+      <c r="A71" s="4"/>
       <c r="B71" t="s">
         <v>57</v>
       </c>
@@ -1563,7 +1566,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
+      <c r="A72" s="4"/>
       <c r="B72" t="s">
         <v>61</v>
       </c>
@@ -1573,7 +1576,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
+      <c r="A73" s="4"/>
       <c r="B73" t="s">
         <v>96</v>
       </c>
@@ -1585,14 +1588,14 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
+      <c r="A74" s="4"/>
       <c r="B74" t="s">
         <v>39</v>
       </c>
       <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B75" t="s">
@@ -1607,7 +1610,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
+      <c r="A76" s="4"/>
       <c r="B76" t="s">
         <v>29</v>
       </c>
@@ -1617,35 +1620,35 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
+      <c r="A77" s="4"/>
       <c r="B77" t="s">
         <v>59</v>
       </c>
       <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
+      <c r="A78" s="4"/>
       <c r="B78" t="s">
         <v>60</v>
       </c>
       <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
+      <c r="A79" s="4"/>
       <c r="B79" t="s">
         <v>47</v>
       </c>
       <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
+      <c r="A80" s="4"/>
       <c r="B80" t="s">
         <v>39</v>
       </c>
       <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B81" t="s">
@@ -1654,21 +1657,21 @@
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
+      <c r="A82" s="4"/>
       <c r="B82" t="s">
         <v>29</v>
       </c>
       <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
+      <c r="A83" s="4"/>
       <c r="B83" t="s">
         <v>59</v>
       </c>
       <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
+      <c r="A84" s="4"/>
       <c r="B84" t="s">
         <v>97</v>
       </c>
@@ -1677,7 +1680,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B85" t="s">
@@ -1694,21 +1697,21 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
+      <c r="A86" s="4"/>
       <c r="B86" t="s">
         <v>1</v>
       </c>
       <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
+      <c r="A87" s="4"/>
       <c r="B87" t="s">
         <v>37</v>
       </c>
       <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
+      <c r="A88" s="4"/>
       <c r="B88" t="s">
         <v>64</v>
       </c>
@@ -1717,51 +1720,51 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
+      <c r="A89" s="4"/>
       <c r="B89" t="s">
         <v>23</v>
       </c>
       <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
+      <c r="A90" s="4"/>
       <c r="B90" t="s">
         <v>29</v>
       </c>
       <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
+      <c r="A91" s="4"/>
       <c r="B91" t="s">
         <v>71</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
+      <c r="A92" s="4"/>
       <c r="B92" t="s">
         <v>70</v>
       </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="2"/>
-      <c r="G92" s="2"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="4"/>
+      <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
+      <c r="A93" s="4"/>
       <c r="B93" t="s">
         <v>72</v>
       </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="2"/>
-      <c r="G93" s="2"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="4"/>
+      <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C94" s="1"/>
@@ -2020,6 +2023,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="A50:A52"/>
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="C91:C93"/>
     <mergeCell ref="A85:A93"/>
@@ -2028,17 +2042,6 @@
     <mergeCell ref="A75:A80"/>
     <mergeCell ref="A67:A74"/>
     <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KUJO JOTARO\Desktop\github\nest-bs\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F342A220-EABD-4AA1-8B3D-67FA6603BCAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5953B9-7048-4E97-B337-361FC89C70EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9E1DD6AB-21D5-4F64-B824-AD98C978794E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9E1DD6AB-21D5-4F64-B824-AD98C978794E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E846C2B-FA2E-491D-B688-FF85BC6C8EAA}">
   <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2023,17 +2023,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="A50:A52"/>
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="C91:C93"/>
     <mergeCell ref="A85:A93"/>
@@ -2042,6 +2031,17 @@
     <mergeCell ref="A75:A80"/>
     <mergeCell ref="A67:A74"/>
     <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A33:A36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KUJO JOTARO\Desktop\github\nest-bs\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5953B9-7048-4E97-B337-361FC89C70EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A2450C-B7B4-4BF9-A15B-980C468DF834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9E1DD6AB-21D5-4F64-B824-AD98C978794E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="101">
   <si>
     <t>mail</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,6 +425,14 @@
   </si>
   <si>
     <t>0是dislike, 1是like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verify_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0普通，1申请，2专业，3文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -804,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E846C2B-FA2E-491D-B688-FF85BC6C8EAA}">
-  <dimension ref="A1:G178"/>
+  <dimension ref="A1:G179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1594,180 +1602,186 @@
       </c>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+    <row r="75" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>7</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="E75" t="s">
-        <v>49</v>
-      </c>
-      <c r="F75" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" t="s">
-        <v>29</v>
       </c>
       <c r="C76" s="1"/>
       <c r="E76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C77" s="1"/>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" t="s">
         <v>39</v>
       </c>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>7</v>
-      </c>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" t="s">
-        <v>29</v>
       </c>
       <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E85" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="1"/>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" t="s">
-        <v>64</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" t="s">
-        <v>23</v>
-      </c>
-      <c r="C89" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" t="s">
-        <v>71</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="4">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" t="s">
-        <v>70</v>
-      </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="4"/>
-      <c r="G92" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="4"/>
       <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="1"/>
+      <c r="A94" s="4"/>
+      <c r="B94" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="4"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C95" s="1"/>
@@ -2021,27 +2035,30 @@
     <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178" s="1"/>
     </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="A85:A93"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="G91:G93"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A33:A36"/>
     <mergeCell ref="A53:A57"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="A58:A62"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="A41:A48"/>
     <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A67:A75"/>
+    <mergeCell ref="A82:A85"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KUJO JOTARO\Desktop\github\nest-bs\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A2450C-B7B4-4BF9-A15B-980C468DF834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8858CD6F-87B8-4CA5-939A-4BFA9D53C3FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9E1DD6AB-21D5-4F64-B824-AD98C978794E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="98">
   <si>
     <t>mail</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dislike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>article_comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,14 +413,6 @@
   </si>
   <si>
     <t>user_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0是dislike, 1是like</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -812,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E846C2B-FA2E-491D-B688-FF85BC6C8EAA}">
-  <dimension ref="A1:G179"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -916,7 +904,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -935,10 +923,10 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -1079,7 +1067,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>21</v>
@@ -1094,7 +1082,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -1139,7 +1127,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>24</v>
@@ -1151,7 +1139,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>21</v>
@@ -1207,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -1223,14 +1211,14 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="1"/>
     </row>
@@ -1266,10 +1254,10 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1283,7 +1271,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -1298,16 +1286,16 @@
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1331,28 +1319,28 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1370,7 +1358,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -1414,7 +1402,7 @@
         <v>37</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
@@ -1483,18 +1471,18 @@
         <v>39</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
@@ -1506,7 +1494,7 @@
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" s="1"/>
     </row>
@@ -1566,19 +1554,21 @@
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C71" s="1"/>
       <c r="G71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" t="s">
-        <v>61</v>
-      </c>
-      <c r="C72" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="G72">
         <v>0</v>
       </c>
@@ -1586,55 +1576,50 @@
     <row r="73" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" t="s">
-        <v>96</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" t="s">
-        <v>39</v>
-      </c>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="B75" t="s">
-        <v>99</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>100</v>
+        <v>7</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="E75" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A76" s="4"/>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C76" s="1"/>
       <c r="E76" t="s">
-        <v>49</v>
-      </c>
-      <c r="F76" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="E77" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
@@ -1646,142 +1631,132 @@
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
+      <c r="A81" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="A82" s="4"/>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
+      <c r="A84" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="B84" t="s">
-        <v>59</v>
-      </c>
-      <c r="C84" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" t="s">
-        <v>97</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A86" s="4"/>
       <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" t="s">
-        <v>12</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" t="s">
-        <v>64</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" t="s">
-        <v>23</v>
-      </c>
-      <c r="C90" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C91" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="4"/>
+      <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" t="s">
         <v>71</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="4">
-        <v>0</v>
-      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="4"/>
+      <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" t="s">
-        <v>70</v>
-      </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="4"/>
-      <c r="G93" s="4"/>
+      <c r="C93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" t="s">
-        <v>72</v>
-      </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="4"/>
-      <c r="G94" s="4"/>
+      <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C95" s="1"/>
@@ -2032,33 +2007,27 @@
     <row r="177" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="1"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="A84:A92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A67:A74"/>
     <mergeCell ref="A53:A57"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="A58:A62"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="A41:A48"/>
     <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A67:A75"/>
-    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A33:A36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
